--- a/src/main/resources/TestCaseFile/Report1.xlsx
+++ b/src/main/resources/TestCaseFile/Report1.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Practice\BNY-Test-Automation-tool\Java-code-validator\Java-Code-Validator\src\main\resources\TestCaseFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="UnitTesting" sheetId="1" r:id="rId1"/>
+    <sheet name="JavaFile TestCase" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>addition</t>
   </si>
@@ -27,18 +27,12 @@
     <t>multiplication</t>
   </si>
   <si>
-    <t>ExpectedOutput</t>
-  </si>
-  <si>
     <t>Answer is: 22</t>
   </si>
   <si>
     <t>Answer is: -90</t>
   </si>
   <si>
-    <t>Method_Name</t>
-  </si>
-  <si>
     <t>Inputs</t>
   </si>
   <si>
@@ -58,6 +52,15 @@
   </si>
   <si>
     <t>method testingSimulation tested successfully</t>
+  </si>
+  <si>
+    <t>Method Name</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Expected Status Code</t>
   </si>
 </sst>
 </file>
@@ -93,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,56 +395,71 @@
     <col min="4" max="4" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+      <c r="D5">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
